--- a/FarmSys/src/Excel/Nhatky.xlsx
+++ b/FarmSys/src/Excel/Nhatky.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="69">
   <si>
     <t/>
   </si>
@@ -44,75 +44,138 @@
     <t>Trang thái</t>
   </si>
   <si>
-    <t>Chăm sóc</t>
-  </si>
-  <si>
-    <t>Cần tây</t>
+    <t>Trồng cây</t>
+  </si>
+  <si>
+    <t>Cây dưa leo</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>zxc</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-07</t>
+  </si>
+  <si>
+    <t>Đang bán</t>
+  </si>
+  <si>
+    <t>Chăm sóc</t>
+  </si>
+  <si>
+    <t>Rau dền</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A2</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>Chưa nhận</t>
+  </si>
+  <si>
+    <t>Đang làm</t>
+  </si>
+  <si>
+    <t>Rau mồng tơi</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A7</t>
+  </si>
+  <si>
+    <t>2020-12-03</t>
+  </si>
+  <si>
+    <t>2021-12-04</t>
+  </si>
+  <si>
+    <t>Rau cải xanh</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn B1</t>
+  </si>
+  <si>
+    <t>Rau xà lách</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A5</t>
+  </si>
+  <si>
+    <t>Hai</t>
+  </si>
+  <si>
+    <t>2020-12-01</t>
+  </si>
+  <si>
+    <t>2021-12-02</t>
+  </si>
+  <si>
+    <t>Cây cà chua</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A10</t>
+  </si>
+  <si>
+    <t>Rau muống</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A3</t>
+  </si>
+  <si>
+    <t>Tri</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A8</t>
+  </si>
+  <si>
+    <t>2020-12-04</t>
+  </si>
+  <si>
+    <t>2021-12-05</t>
+  </si>
+  <si>
+    <t>Rau mầm</t>
   </si>
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>Trung</t>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
-    <t>2021-12-04</t>
-  </si>
-  <si>
-    <t>Đang bán</t>
-  </si>
-  <si>
-    <t>Trồng cây</t>
-  </si>
-  <si>
-    <t>Rau muống</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>Cây cà chua</t>
-  </si>
-  <si>
-    <t>2021-12-30</t>
-  </si>
-  <si>
-    <t>2021-12-31</t>
-  </si>
-  <si>
-    <t>A234</t>
-  </si>
-  <si>
-    <t>Chưa nhận</t>
-  </si>
-  <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>1234</t>
-  </si>
-  <si>
-    <t>Hai</t>
-  </si>
-  <si>
-    <t>Tri</t>
-  </si>
-  <si>
-    <t>Từ chối</t>
-  </si>
-  <si>
-    <t>Rau mầm</t>
-  </si>
-  <si>
     <t>Trồng cây giàn A1</t>
   </si>
   <si>
@@ -123,6 +186,39 @@
   </si>
   <si>
     <t>2021-12-29</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>Rau cầu vòng</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A6</t>
+  </si>
+  <si>
+    <t>Tía tô</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A9</t>
+  </si>
+  <si>
+    <t>Tuan</t>
+  </si>
+  <si>
+    <t>Rau cải ngọt</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A4</t>
   </si>
 </sst>
 </file>
@@ -167,7 +263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:I13"/>
+  <dimension ref="A4:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -239,10 +335,10 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -251,13 +347,13 @@
         <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
@@ -265,13 +361,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -280,13 +376,13 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
@@ -294,13 +390,13 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -309,27 +405,27 @@
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -338,13 +434,13 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
@@ -352,13 +448,13 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -367,42 +463,42 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
@@ -410,57 +506,492 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
         <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" t="s">
+        <v>57</v>
+      </c>
+      <c r="I20" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" t="s">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="H26" t="s">
+        <v>40</v>
+      </c>
+      <c r="I26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H27" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" t="s">
+        <v>50</v>
+      </c>
+      <c r="H28" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/FarmSys/src/Excel/Nhatky.xlsx
+++ b/FarmSys/src/Excel/Nhatky.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="82">
   <si>
     <t/>
   </si>
@@ -47,6 +47,39 @@
     <t>Trồng cây</t>
   </si>
   <si>
+    <t>Rau cải ngọt</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
+  </si>
+  <si>
+    <t>2021-12-09</t>
+  </si>
+  <si>
+    <t>Chưa nhận</t>
+  </si>
+  <si>
+    <t>Cần tây</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
     <t>Cây dưa leo</t>
   </si>
   <si>
@@ -56,12 +89,6 @@
     <t>zxc</t>
   </si>
   <si>
-    <t>Trung</t>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
     <t>2021-12-06</t>
   </si>
   <si>
@@ -71,6 +98,24 @@
     <t>Đang bán</t>
   </si>
   <si>
+    <t>Cây cà chua</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>Đang làm</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Trồng cần</t>
+  </si>
+  <si>
+    <t>2021-12-10</t>
+  </si>
+  <si>
     <t>Chăm sóc</t>
   </si>
   <si>
@@ -89,10 +134,10 @@
     <t>2021-12-03</t>
   </si>
   <si>
-    <t>Chưa nhận</t>
-  </si>
-  <si>
-    <t>Đang làm</t>
+    <t>Từ chối</t>
+  </si>
+  <si>
+    <t>Hoàn thành</t>
   </si>
   <si>
     <t>Rau mồng tơi</t>
@@ -137,9 +182,6 @@
     <t>2021-12-02</t>
   </si>
   <si>
-    <t>Cây cà chua</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -173,9 +215,6 @@
     <t>Rau mầm</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Trồng cây giàn A1</t>
   </si>
   <si>
@@ -188,6 +227,9 @@
     <t>2021-12-29</t>
   </si>
   <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>B1</t>
   </si>
   <si>
@@ -210,9 +252,6 @@
   </si>
   <si>
     <t>Tuan</t>
-  </si>
-  <si>
-    <t>Rau cải ngọt</t>
   </si>
   <si>
     <t>B4</t>
@@ -263,7 +302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:I28"/>
+  <dimension ref="A4:I33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -329,31 +368,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -361,57 +400,57 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9">
@@ -419,57 +458,57 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -477,57 +516,57 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -535,57 +574,57 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
@@ -593,57 +632,57 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
         <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -651,57 +690,57 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" t="s">
+        <v>55</v>
+      </c>
+      <c r="I17" t="s">
         <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -709,54 +748,54 @@
         <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
@@ -764,57 +803,57 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
@@ -822,31 +861,31 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s">
-        <v>55</v>
-      </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -854,144 +893,289 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="H24" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
         <v>19</v>
       </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="H25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D26" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G26" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="I26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>66</v>
       </c>
       <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
         <v>67</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>68</v>
       </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" t="s">
-        <v>65</v>
-      </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D28" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
         <v>68</v>
       </c>
-      <c r="E28" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>39</v>
+      </c>
+      <c r="I28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s">
+        <v>68</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s">
+        <v>39</v>
+      </c>
+      <c r="I29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
+        <v>55</v>
+      </c>
+      <c r="I30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" t="s">
+        <v>54</v>
+      </c>
+      <c r="H31" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" t="s">
         <v>65</v>
       </c>
-      <c r="G28" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" t="s">
-        <v>51</v>
-      </c>
-      <c r="I28" t="s">
-        <v>26</v>
+      <c r="I32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/FarmSys/src/Excel/Nhatky.xlsx
+++ b/FarmSys/src/Excel/Nhatky.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="80">
   <si>
     <t/>
   </si>
@@ -44,34 +44,67 @@
     <t>Trang thái</t>
   </si>
   <si>
+    <t>Trồng cây</t>
+  </si>
+  <si>
+    <t>Rau cải xoan</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>Trung</t>
+  </si>
+  <si>
+    <t>Dung</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-14</t>
+  </si>
+  <si>
+    <t>Chưa nhận</t>
+  </si>
+  <si>
+    <t>Chăm sóc</t>
+  </si>
+  <si>
+    <t>Cần tây</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>2021-12-12</t>
+  </si>
+  <si>
+    <t>Từ chối</t>
+  </si>
+  <si>
     <t>Thu hoạch</t>
   </si>
   <si>
-    <t>Cần tây</t>
+    <t>Thu hoạch xong pha dùm ly cf</t>
+  </si>
+  <si>
+    <t>Trồng giàn A10</t>
+  </si>
+  <si>
+    <t>Rau xà lách</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>Thu hoạch xong pha dùm ly cf</t>
-  </si>
-  <si>
-    <t>Trung</t>
-  </si>
-  <si>
-    <t>Dung</t>
-  </si>
-  <si>
-    <t>2021-12-12</t>
-  </si>
-  <si>
-    <t>2021-12-13</t>
-  </si>
-  <si>
-    <t>Chưa nhận</t>
-  </si>
-  <si>
-    <t>Trồng cây</t>
+    <t>Làm xong pha dùm ly cf</t>
+  </si>
+  <si>
+    <t>Đang bán</t>
   </si>
   <si>
     <t>Rau mồng tơi</t>
@@ -89,48 +122,45 @@
     <t>2021-12-04</t>
   </si>
   <si>
+    <t>Chăm sóc</t>
+  </si>
+  <si>
+    <t>Rau dền</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn A2</t>
+  </si>
+  <si>
+    <t>2020-12-02</t>
+  </si>
+  <si>
+    <t>2021-12-03</t>
+  </si>
+  <si>
+    <t>Đang làm</t>
+  </si>
+  <si>
+    <t>Rau cải xanh</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>Trồng cây giàn B1</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>Hoàn thành</t>
   </si>
   <si>
-    <t>Chăm sóc</t>
-  </si>
-  <si>
-    <t>Rau dền</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>Trồng cây giàn A2</t>
-  </si>
-  <si>
-    <t>2020-12-02</t>
-  </si>
-  <si>
-    <t>2021-12-03</t>
-  </si>
-  <si>
-    <t>Từ chối</t>
-  </si>
-  <si>
-    <t>Rau cải xanh</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>Trồng cây giàn B1</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Đang làm</t>
-  </si>
-  <si>
     <t>Cây cà chua</t>
   </si>
   <si>
@@ -143,9 +173,6 @@
     <t>Hai</t>
   </si>
   <si>
-    <t>Rau xà lách</t>
-  </si>
-  <si>
     <t>Trồng cây giàn A5</t>
   </si>
   <si>
@@ -188,9 +215,6 @@
     <t>Rau mầm</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Trồng cây giàn A1</t>
   </si>
   <si>
@@ -201,9 +225,6 @@
   </si>
   <si>
     <t>2021-12-29</t>
-  </si>
-  <si>
-    <t>Đang bán</t>
   </si>
   <si>
     <t>Rau cầu vòng</t>
@@ -275,7 +296,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A4:I22"/>
+  <dimension ref="A4:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -321,515 +342,660 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>17</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
         <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I7" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>15</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
         <v>14</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>42</v>
-      </c>
       <c r="G11" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
         <v>30</v>
-      </c>
-      <c r="H11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" t="s">
         <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" t="s">
         <v>42</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" t="s">
-        <v>50</v>
-      </c>
       <c r="G14" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H14" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
-        <v>50</v>
-      </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="H15" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G17" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
         <v>60</v>
       </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
       <c r="H19" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="I19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" t="s">
+        <v>55</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
         <v>71</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>14</v>
-      </c>
-      <c r="F22" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" t="s">
-        <v>51</v>
-      </c>
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
+      <c r="H24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" t="s">
+        <v>54</v>
+      </c>
+      <c r="H26" t="s">
+        <v>55</v>
+      </c>
+      <c r="I26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
